--- a/Deliverables/D04/Costs budget D04.xlsx
+++ b/Deliverables/D04/Costs budget D04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1efaf416e19a358/Documentos/GitHub/DPGrupo11/Deliverables/D04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\Documentos\GitHub\DPGrupo11\Deliverables\D04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93ACA97B-5DBA-4F26-803F-ECDFD9272897}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{93ACA97B-5DBA-4F26-803F-ECDFD9272897}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{0F4F5C74-B59B-45AB-BF10-00BCF6FE5A0E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{9B1D1F48-7E6A-4441-A4CA-6027AF884C6B}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="B1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="C4" s="5">
         <f>(((I15-1)*I10+I11)/6)*I17</f>
-        <v>360.55484999999999</v>
+        <v>2172.7164833333331</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
       </c>
       <c r="C9" s="10">
         <f>SUM(C4:C7)</f>
-        <v>403.48414292929294</v>
+        <v>2215.645776262626</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
       </c>
       <c r="C11" s="7">
         <f>I8-C9</f>
-        <v>1183.1158570707071</v>
+        <v>-629.04577626262608</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="C12" s="11">
         <f>C9/I8</f>
-        <v>0.2543074139224083</v>
+        <v>1.3964740805890747</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="3">
-        <v>27.27</v>
+        <v>164.33</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>15</v>
